--- a/database/seeders/data/mk_0.xlsx
+++ b/database/seeders/data/mk_0.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14960"/>
+    <workbookView windowHeight="14140"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lembar1!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lembar1!$A$1:$E$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>kode_mk</t>
   </si>
@@ -92,106 +92,10 @@
     <t>Al-Islam dan Kemuhammadiyaan IV</t>
   </si>
   <si>
-    <t>NAS101</t>
-  </si>
-  <si>
     <t>NAS301</t>
   </si>
   <si>
     <t>UU dan Peraturan Perikanan</t>
-  </si>
-  <si>
-    <t>FAK1101</t>
-  </si>
-  <si>
-    <t>Al-Islam dan Kemuhammadiyahan I</t>
-  </si>
-  <si>
-    <t>UMM202</t>
-  </si>
-  <si>
-    <t>Al-Islam dan Kemuhammadiyahan II</t>
-  </si>
-  <si>
-    <t>UMM2022</t>
-  </si>
-  <si>
-    <t>Bahasa Inggris</t>
-  </si>
-  <si>
-    <t>UMM303</t>
-  </si>
-  <si>
-    <t>Al-Islam dan Kemuhammadiyahan III</t>
-  </si>
-  <si>
-    <t>UMM404</t>
-  </si>
-  <si>
-    <t>Al-Islam dan Kemuhammadiyahan IV</t>
-  </si>
-  <si>
-    <t>UMM101</t>
-  </si>
-  <si>
-    <t>AIK I</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>NAS102</t>
-  </si>
-  <si>
-    <t>UMM102</t>
-  </si>
-  <si>
-    <t>AIK II</t>
-  </si>
-  <si>
-    <t>UMM205</t>
-  </si>
-  <si>
-    <t>UMM103</t>
-  </si>
-  <si>
-    <t>AIK III</t>
-  </si>
-  <si>
-    <t>UMM104</t>
-  </si>
-  <si>
-    <t>AIK IV</t>
-  </si>
-  <si>
-    <t>UMM100</t>
-  </si>
-  <si>
-    <t>Al Islam dan Kemuhammadiyahan I</t>
-  </si>
-  <si>
-    <t>NAS102-2</t>
-  </si>
-  <si>
-    <t>NAS104</t>
-  </si>
-  <si>
-    <t>UMM200 </t>
-  </si>
-  <si>
-    <t>Al Islam dan Kemuhammadiyahan II</t>
-  </si>
-  <si>
-    <t>UMM300</t>
-  </si>
-  <si>
-    <t>Al Islam dan Kemuhammadiyahan III</t>
-  </si>
-  <si>
-    <t>UMM400</t>
-  </si>
-  <si>
-    <t>Al Islam dan Kemuhammadiyahan IV</t>
   </si>
 </sst>
 </file>
@@ -204,14 +108,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="31">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,30 +149,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
@@ -626,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -669,124 +542,6 @@
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -909,155 +664,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1066,91 +821,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1499,23 +1193,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="32.70625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.83125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.1625" customWidth="1"/>
-    <col min="4" max="4" width="15.33125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="32.7053571428571" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.8303571428571" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.1607142857143" customWidth="1"/>
+    <col min="4" max="4" width="15.3303571428571" style="4" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1531,14 +1225,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="17.75" spans="1:5">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="18.35" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
       <c r="D2" s="4">
@@ -1548,14 +1242,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="17.75" spans="1:5">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="18.35" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>2</v>
       </c>
       <c r="D3" s="4">
@@ -1565,14 +1259,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="17.75" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="18.35" spans="1:5">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
       <c r="D4" s="4">
@@ -1582,14 +1276,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="17.75" spans="1:5">
-      <c r="A5" s="6" t="s">
+    <row r="5" ht="18.35" spans="1:5">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
       <c r="D5" s="4">
@@ -1599,14 +1293,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="17.75" spans="1:5">
-      <c r="A6" s="6" t="s">
+    <row r="6" ht="18.35" spans="1:5">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>2</v>
       </c>
       <c r="D6" s="4">
@@ -1616,14 +1310,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="17.75" spans="1:5">
-      <c r="A7" s="6" t="s">
+    <row r="7" ht="18.35" spans="1:5">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
       <c r="D7" s="4">
@@ -1633,348 +1327,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" ht="17.75" spans="1:5">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="19.1" customHeight="1" spans="1:5">
-      <c r="A9" s="10" t="s">
+    <row r="9" s="1" customFormat="1" ht="19.1" spans="1:5">
+      <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9">
         <v>2</v>
       </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="18.5" spans="1:5">
-      <c r="A10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="D9" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="18.35" spans="1:5">
-      <c r="A11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="15">
-        <v>2</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="18.35" spans="1:5">
-      <c r="A12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="19">
-        <v>2</v>
-      </c>
-      <c r="D12" s="16">
-        <v>2</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="18.35" spans="1:5">
-      <c r="A13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="19">
-        <v>2</v>
-      </c>
-      <c r="D13" s="16">
-        <v>2</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="17.75" spans="1:5">
-      <c r="A14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="19">
-        <v>2</v>
-      </c>
-      <c r="D14" s="16">
-        <v>3</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="17.75" spans="1:5">
-      <c r="A15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="19">
-        <v>2</v>
-      </c>
-      <c r="D15" s="16">
-        <v>4</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="16.8" spans="1:5">
-      <c r="A16" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="24">
-        <v>1</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="16.8" spans="1:5">
-      <c r="A17" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="24">
-        <v>1</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="16.8" spans="1:5">
-      <c r="A18" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="12">
-        <v>2</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="16.8" spans="1:5">
-      <c r="A19" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="12">
-        <v>2</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="16.8" spans="1:5">
-      <c r="A20" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="12">
-        <v>3</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="16.8" spans="1:5">
-      <c r="A21" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="12">
-        <v>4</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="17.6" spans="1:5">
-      <c r="A22" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="27">
-        <v>2</v>
-      </c>
-      <c r="D22" s="16">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="17.6" spans="1:5">
-      <c r="A23" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="30">
-        <v>2</v>
-      </c>
-      <c r="D23" s="16">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="17.6" spans="1:5">
-      <c r="A24" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="31">
-        <v>2</v>
-      </c>
-      <c r="D24" s="16">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="17.6" spans="1:5">
-      <c r="A25" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="33">
-        <v>2</v>
-      </c>
-      <c r="D25" s="16">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="17.6" spans="1:5">
-      <c r="A26" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="34">
-        <v>2</v>
-      </c>
-      <c r="D26" s="16">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="17.6" spans="1:5">
-      <c r="A27" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="30">
-        <v>2</v>
-      </c>
-      <c r="D27" s="16">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="E9" s="12" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E8" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E9" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="A$1:A$1048576">
